--- a/明日之后共创服数据库/时装.xlsx
+++ b/明日之后共创服数据库/时装.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86198\Desktop\明日之后共创服数据库\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\明日之后LifeAfter\Lifeafter database\明日之后共创服数据库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704981A9-67FA-4407-89C3-DF2B34D421A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5026EC-D607-4AF5-B76A-7A573A74C06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1248" windowWidth="22680" windowHeight="10116" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3588" yWindow="996" windowWidth="17172" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="167">
   <si>
     <t>时装名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -365,13 +365,343 @@
   <si>
     <t>&gt;=6元</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香韵弄樱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.03.21-2024.04.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香韵弄樱抽奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜花水樱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱月相随</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱舞花影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱舞花影抽奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱花随行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团团樱花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱花树下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈樱春意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔优等生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔、学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.04.03-2024.04.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时装直售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春之精灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光影意志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2024.04.11-2024.04.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25.03</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2024.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>04.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-2024.04.11.03</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草莓奶霜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄气泡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香草回忆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青春变奏曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.04.03-2024.04.18.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青春变奏曲抽奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点甜-头饰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点酸-头饰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸甜碰撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头饰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸甜碰撞、水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.04.03-2024.04.26.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战至终篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长刀、战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.04.18-2024.05.09.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小羊剪刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绵羊、机械</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.04.18-2024.05.02.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outfit-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outfit-2</t>
+  </si>
+  <si>
+    <t>outfit-3</t>
+  </si>
+  <si>
+    <t>outfit-4</t>
+  </si>
+  <si>
+    <t>outfit-5</t>
+  </si>
+  <si>
+    <t>outfit-6</t>
+  </si>
+  <si>
+    <t>outfit-7</t>
+  </si>
+  <si>
+    <t>outfit-8</t>
+  </si>
+  <si>
+    <t>outfit-9</t>
+  </si>
+  <si>
+    <t>outfit-10</t>
+  </si>
+  <si>
+    <t>outfit-11</t>
+  </si>
+  <si>
+    <t>outfit-12</t>
+  </si>
+  <si>
+    <t>outfit-13</t>
+  </si>
+  <si>
+    <t>outfit-14</t>
+  </si>
+  <si>
+    <t>outfit-15</t>
+  </si>
+  <si>
+    <t>outfit-16</t>
+  </si>
+  <si>
+    <t>outfit-17</t>
+  </si>
+  <si>
+    <t>outfit-18</t>
+  </si>
+  <si>
+    <t>outfit-19</t>
+  </si>
+  <si>
+    <t>outfit-20</t>
+  </si>
+  <si>
+    <t>outfit-21</t>
+  </si>
+  <si>
+    <t>outfit-22</t>
+  </si>
+  <si>
+    <t>outfit-23</t>
+  </si>
+  <si>
+    <t>outfit-24</t>
+  </si>
+  <si>
+    <t>outfit-25</t>
+  </si>
+  <si>
+    <t>outfit-26</t>
+  </si>
+  <si>
+    <t>outfit-27</t>
+  </si>
+  <si>
+    <t>outfit-28</t>
+  </si>
+  <si>
+    <t>outfit-29</t>
+  </si>
+  <si>
+    <t>outfit-30</t>
+  </si>
+  <si>
+    <t>outfit-31</t>
+  </si>
+  <si>
+    <t>outfit-32</t>
+  </si>
+  <si>
+    <t>outfit-33</t>
+  </si>
+  <si>
+    <t>outfit-34</t>
+  </si>
+  <si>
+    <t>outfit-35</t>
+  </si>
+  <si>
+    <t>outfit-36</t>
+  </si>
+  <si>
+    <t>outfit-37</t>
+  </si>
+  <si>
+    <t>outfit-38</t>
+  </si>
+  <si>
+    <t>outfit-39</t>
+  </si>
+  <si>
+    <t>outfit-40</t>
+  </si>
+  <si>
+    <t>outfit-41</t>
+  </si>
+  <si>
+    <t>outfit-42</t>
+  </si>
+  <si>
+    <t>outfit-43</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +741,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -734,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -780,6 +1118,9 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -803,6 +1144,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
@@ -826,6 +1170,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
@@ -849,6 +1196,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
@@ -872,6 +1222,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
@@ -895,6 +1248,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
@@ -918,6 +1274,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
@@ -941,6 +1300,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
@@ -955,6 +1317,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="B10" s="5" t="s">
         <v>62</v>
       </c>
@@ -969,6 +1334,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
@@ -983,6 +1351,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="B12" s="5" t="s">
         <v>34</v>
       </c>
@@ -997,6 +1368,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="B13" s="5" t="s">
         <v>38</v>
       </c>
@@ -1020,6 +1394,9 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="B14" s="3" t="s">
         <v>45</v>
       </c>
@@ -1043,6 +1420,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
@@ -1066,6 +1446,9 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="B16" s="4" t="s">
         <v>75</v>
       </c>
@@ -1088,7 +1471,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="B17" s="4" t="s">
         <v>78</v>
       </c>
@@ -1105,7 +1491,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="B18" s="4" t="s">
         <v>76</v>
       </c>
@@ -1122,7 +1511,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="B19" s="4" t="s">
         <v>52</v>
       </c>
@@ -1145,7 +1537,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="B20" s="2" t="s">
         <v>54</v>
       </c>
@@ -1168,7 +1563,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="B21" s="2" t="s">
         <v>57</v>
       </c>
@@ -1191,7 +1589,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="B22" s="2" t="s">
         <v>63</v>
       </c>
@@ -1214,7 +1615,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="B23" s="2" t="s">
         <v>66</v>
       </c>
@@ -1237,7 +1641,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="B24" s="5" t="s">
         <v>71</v>
       </c>
@@ -1260,7 +1667,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="B25" s="5" t="s">
         <v>72</v>
       </c>
@@ -1283,7 +1693,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="B26" s="5" t="s">
         <v>79</v>
       </c>
@@ -1304,6 +1717,474 @@
       </c>
       <c r="H26" s="1" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
